--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H2">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I2">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J2">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07265100000000001</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N2">
-        <v>0.217953</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O2">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P2">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q2">
-        <v>10.672547850996</v>
+        <v>40.85884265338067</v>
       </c>
       <c r="R2">
-        <v>96.052930658964</v>
+        <v>367.729583880426</v>
       </c>
       <c r="S2">
-        <v>0.05077538580200167</v>
+        <v>0.1150659630644092</v>
       </c>
       <c r="T2">
-        <v>0.05077538580200166</v>
+        <v>0.1150659630644091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H3">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I3">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J3">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.036125</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N3">
-        <v>0.108375</v>
+        <v>2.317222</v>
       </c>
       <c r="O3">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P3">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q3">
-        <v>5.3068201555</v>
+        <v>175.5545175740887</v>
       </c>
       <c r="R3">
-        <v>47.7613813995</v>
+        <v>1579.990658166798</v>
       </c>
       <c r="S3">
-        <v>0.02524756454965947</v>
+        <v>0.4943935834486705</v>
       </c>
       <c r="T3">
-        <v>0.02524756454965947</v>
+        <v>0.4943935834486704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>146.901596</v>
+        <v>138.990916</v>
       </c>
       <c r="H4">
-        <v>440.704788</v>
+        <v>416.972748</v>
       </c>
       <c r="I4">
-        <v>0.5061978858527532</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J4">
-        <v>0.5061978858527532</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6155076666666667</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N4">
-        <v>1.846523</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O4">
-        <v>0.8498157489860096</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P4">
-        <v>0.8498157489860095</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q4">
-        <v>90.41905858356934</v>
+        <v>24.98658229054134</v>
       </c>
       <c r="R4">
-        <v>813.771527252124</v>
+        <v>224.879240614872</v>
       </c>
       <c r="S4">
-        <v>0.430174935501092</v>
+        <v>0.07036677909209851</v>
       </c>
       <c r="T4">
-        <v>0.430174935501092</v>
+        <v>0.07036677909209849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>416.972748</v>
       </c>
       <c r="I5">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J5">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07265100000000001</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N5">
-        <v>0.217953</v>
+        <v>2.317222</v>
       </c>
       <c r="O5">
-        <v>0.1003073841694622</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P5">
-        <v>0.1003073841694622</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q5">
-        <v>10.097829038316</v>
+        <v>107.3576027851173</v>
       </c>
       <c r="R5">
-        <v>90.88046134484399</v>
+        <v>966.2184250660561</v>
       </c>
       <c r="S5">
-        <v>0.04804112123379249</v>
+        <v>0.3023386164300401</v>
       </c>
       <c r="T5">
-        <v>0.04804112123379248</v>
+        <v>0.3023386164300401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>138.990916</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H6">
-        <v>416.972748</v>
+        <v>19.133444</v>
       </c>
       <c r="I6">
-        <v>0.4789390295796214</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J6">
-        <v>0.4789390295796214</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.036125</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N6">
-        <v>0.108375</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O6">
-        <v>0.04987686684452822</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P6">
-        <v>0.04987686684452822</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q6">
-        <v>5.021046840499999</v>
+        <v>1.146548246379556</v>
       </c>
       <c r="R6">
-        <v>45.18942156449999</v>
+        <v>10.318934217416</v>
       </c>
       <c r="S6">
-        <v>0.02388797820499034</v>
+        <v>0.003228889258774863</v>
       </c>
       <c r="T6">
-        <v>0.02388797820499034</v>
+        <v>0.003228889258774861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.990916</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H7">
-        <v>416.972748</v>
+        <v>19.133444</v>
       </c>
       <c r="I7">
-        <v>0.4789390295796214</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J7">
-        <v>0.4789390295796214</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6155076666666667</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N7">
-        <v>1.846523</v>
+        <v>2.317222</v>
       </c>
       <c r="O7">
-        <v>0.8498157489860096</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P7">
-        <v>0.8498157489860095</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q7">
-        <v>85.54997439502267</v>
+        <v>4.926270819174221</v>
       </c>
       <c r="R7">
-        <v>769.9497695552039</v>
+        <v>44.33643737256799</v>
       </c>
       <c r="S7">
-        <v>0.4070099301408386</v>
+        <v>0.01387327832393894</v>
       </c>
       <c r="T7">
-        <v>0.4070099301408385</v>
+        <v>0.01387327832393893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.149135333333333</v>
+        <v>0.2733126666666666</v>
       </c>
       <c r="H8">
-        <v>12.447406</v>
+        <v>0.8199379999999999</v>
       </c>
       <c r="I8">
-        <v>0.01429721385634429</v>
+        <v>0.0007328903820679218</v>
       </c>
       <c r="J8">
-        <v>0.01429721385634429</v>
+        <v>0.0007328903820679217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07265100000000001</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N8">
-        <v>0.217953</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O8">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P8">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q8">
-        <v>0.301438831102</v>
+        <v>0.04913378250355556</v>
       </c>
       <c r="R8">
-        <v>2.712949479918</v>
+        <v>0.442204042532</v>
       </c>
       <c r="S8">
-        <v>0.001434116122841284</v>
+        <v>0.0001383697049554353</v>
       </c>
       <c r="T8">
-        <v>0.001434116122841284</v>
+        <v>0.0001383697049554352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.149135333333333</v>
+        <v>0.2733126666666666</v>
       </c>
       <c r="H9">
-        <v>12.447406</v>
+        <v>0.8199379999999999</v>
       </c>
       <c r="I9">
-        <v>0.01429721385634429</v>
+        <v>0.0007328903820679218</v>
       </c>
       <c r="J9">
-        <v>0.01429721385634429</v>
+        <v>0.0007328903820679217</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.036125</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N9">
-        <v>0.108375</v>
+        <v>2.317222</v>
       </c>
       <c r="O9">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P9">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q9">
-        <v>0.1498875139166666</v>
+        <v>0.2111087080262222</v>
       </c>
       <c r="R9">
-        <v>1.34898762525</v>
+        <v>1.899978372236</v>
       </c>
       <c r="S9">
-        <v>0.0007131002317606281</v>
+        <v>0.0005945206771124866</v>
       </c>
       <c r="T9">
-        <v>0.0007131002317606282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.149135333333333</v>
-      </c>
-      <c r="H10">
-        <v>12.447406</v>
-      </c>
-      <c r="I10">
-        <v>0.01429721385634429</v>
-      </c>
-      <c r="J10">
-        <v>0.01429721385634429</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6155076666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.846523</v>
-      </c>
-      <c r="O10">
-        <v>0.8498157489860096</v>
-      </c>
-      <c r="P10">
-        <v>0.8498157489860095</v>
-      </c>
-      <c r="Q10">
-        <v>2.553824607704222</v>
-      </c>
-      <c r="R10">
-        <v>22.984421469338</v>
-      </c>
-      <c r="S10">
-        <v>0.01214999750174238</v>
-      </c>
-      <c r="T10">
-        <v>0.01214999750174238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.164219</v>
-      </c>
-      <c r="H11">
-        <v>0.492657</v>
-      </c>
-      <c r="I11">
-        <v>0.0005658707112811304</v>
-      </c>
-      <c r="J11">
-        <v>0.0005658707112811305</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07265100000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.217953</v>
-      </c>
-      <c r="O11">
-        <v>0.1003073841694622</v>
-      </c>
-      <c r="P11">
-        <v>0.1003073841694622</v>
-      </c>
-      <c r="Q11">
-        <v>0.011930674569</v>
-      </c>
-      <c r="R11">
-        <v>0.107376071121</v>
-      </c>
-      <c r="S11">
-        <v>5.676101082672315E-05</v>
-      </c>
-      <c r="T11">
-        <v>5.676101082672315E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.164219</v>
-      </c>
-      <c r="H12">
-        <v>0.492657</v>
-      </c>
-      <c r="I12">
-        <v>0.0005658707112811304</v>
-      </c>
-      <c r="J12">
-        <v>0.0005658707112811305</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.036125</v>
-      </c>
-      <c r="N12">
-        <v>0.108375</v>
-      </c>
-      <c r="O12">
-        <v>0.04987686684452822</v>
-      </c>
-      <c r="P12">
-        <v>0.04987686684452822</v>
-      </c>
-      <c r="Q12">
-        <v>0.005932411374999998</v>
-      </c>
-      <c r="R12">
-        <v>0.053391702375</v>
-      </c>
-      <c r="S12">
-        <v>2.822385811778741E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.822385811778742E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.164219</v>
-      </c>
-      <c r="H13">
-        <v>0.492657</v>
-      </c>
-      <c r="I13">
-        <v>0.0005658707112811304</v>
-      </c>
-      <c r="J13">
-        <v>0.0005658707112811305</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6155076666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.846523</v>
-      </c>
-      <c r="O13">
-        <v>0.8498157489860096</v>
-      </c>
-      <c r="P13">
-        <v>0.8498157489860095</v>
-      </c>
-      <c r="Q13">
-        <v>0.1010780535123333</v>
-      </c>
-      <c r="R13">
-        <v>0.9097024816109999</v>
-      </c>
-      <c r="S13">
-        <v>0.0004808858423366198</v>
-      </c>
-      <c r="T13">
-        <v>0.0004808858423366198</v>
+        <v>0.0005945206771124865</v>
       </c>
     </row>
   </sheetData>
